--- a/NON-COVID Player Stats/K/K_aggregate.xlsx
+++ b/NON-COVID Player Stats/K/K_aggregate.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,15 +468,10 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Season Group</t>
+          <t>FG%</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>FG%</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Lng</t>
         </is>
@@ -488,268 +483,63 @@
           <t>Jason Myers</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Group1</t>
-        </is>
+      <c r="B2" s="2" t="n">
+        <v>2.304687500000002</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>85.33333333333333</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>56</v>
+        <v>1.190476190476186</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>Jason Myers</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>Group2</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>87.3</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>56.66666666666666</v>
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Justin Tucker</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>-12.49555001779992</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>-4.651162790697683</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>Jason Myers</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>Difference</t>
-        </is>
+          <t>Matt Gay</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>-0.4252029377657442</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>1.966666666666669</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>0.6666666666666643</v>
+        <v>4.268292682926834</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>Justin Tucker</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>Group1</t>
-        </is>
+          <t>sportsref download (73)</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>2.304687500000002</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>93.63333333333333</v>
-      </c>
-      <c r="D5" s="3" t="n">
-        <v>57.33333333333334</v>
+        <v>1.190476190476186</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>Justin Tucker</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>Group2</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="n">
-        <v>81.93333333333334</v>
-      </c>
-      <c r="D6" s="3" t="n">
-        <v>54.66666666666666</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>Justin Tucker</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>Difference</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="n">
-        <v>-11.69999999999999</v>
-      </c>
-      <c r="D7" s="3" t="n">
-        <v>-2.666666666666671</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>Matt Gay</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>Group1</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>86.23333333333333</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>54.66666666666666</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>Matt Gay</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>Group2</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>85.86666666666667</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>Matt Gay</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>Difference</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>-0.36666666666666</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>2.333333333333336</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>sportsref download (73)</t>
-        </is>
-      </c>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>Group1</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="n">
-        <v>85.33333333333333</v>
-      </c>
-      <c r="D11" s="3" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="inlineStr">
-        <is>
-          <t>sportsref download (73)</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Group2</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="n">
-        <v>87.3</v>
-      </c>
-      <c r="D12" s="3" t="n">
-        <v>56.66666666666666</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="inlineStr">
-        <is>
-          <t>sportsref download (73)</t>
-        </is>
-      </c>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>Difference</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="n">
-        <v>1.966666666666669</v>
-      </c>
-      <c r="D13" s="3" t="n">
-        <v>0.6666666666666643</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>Younghoe Koo</t>
         </is>
       </c>
-      <c r="B14" s="2" t="inlineStr">
-        <is>
-          <t>Group1</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>92.16666666666667</v>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="inlineStr">
-        <is>
-          <t>Younghoe Koo</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
-        <is>
-          <t>Group2</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>82.16666666666667</v>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>55.33333333333334</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>Younghoe Koo</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>Difference</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>3.333333333333336</v>
+      <c r="B6" s="2" t="n">
+        <v>-10.8499095840868</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>6.410256410256415</v>
       </c>
     </row>
   </sheetData>

--- a/NON-COVID Player Stats/K/K_aggregate.xlsx
+++ b/NON-COVID Player Stats/K/K_aggregate.xlsx
@@ -1,12 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -25,12 +26,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <family val="2"/>
       <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -62,19 +58,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -89,7 +76,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -452,9 +439,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -468,10 +455,15 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Season Group</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>FG%</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Lng</t>
         </is>
@@ -483,66 +475,271 @@
           <t>Jason Myers</t>
         </is>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>2.304687500000002</v>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.190476190476186</v>
+        <v>85.33333333333333</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>Justin Tucker</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="n">
-        <v>-12.49555001779992</v>
-      </c>
-      <c r="C3" s="3" t="n">
-        <v>-4.651162790697683</v>
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Jason Myers</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>87.3</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>56.66666666666666</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>Matt Gay</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>-0.4252029377657442</v>
+          <t>Jason Myers</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>4.268292682926834</v>
+        <v>1.966666666666669</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0.6666666666666643</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
+          <t>Justin Tucker</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>93.63333333333333</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>57.33333333333334</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Justin Tucker</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>81.93333333333334</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>54.66666666666666</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>Justin Tucker</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>-11.69999999999999</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>-2.666666666666671</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>Matt Gay</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>86.23333333333333</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>54.66666666666666</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>Matt Gay</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>85.86666666666667</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>Matt Gay</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>-0.36666666666666</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>2.333333333333336</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
           <t>sportsref download (73)</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n">
-        <v>2.304687500000002</v>
-      </c>
-      <c r="C5" s="3" t="n">
-        <v>1.190476190476186</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>85.33333333333333</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>sportsref download (73)</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>87.3</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>56.66666666666666</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>sportsref download (73)</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>1.966666666666669</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>0.6666666666666643</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
         <is>
           <t>Younghoe Koo</t>
         </is>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>-10.8499095840868</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>6.410256410256415</v>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>92.16666666666667</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>Younghoe Koo</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>82.16666666666667</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>55.33333333333334</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>Younghoe Koo</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>3.333333333333336</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>